--- a/ansøgere/ansøgere.xlsx
+++ b/ansøgere/ansøgere.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34180" yWindow="3840" windowWidth="25600" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="28400" yWindow="0" windowWidth="31380" windowHeight="20140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Peter Pedersen</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Brian Spiegelhauer</t>
   </si>
   <si>
-    <t>Jenny Margrethe Vej</t>
-  </si>
-  <si>
     <t>Martin Westh Petersen</t>
   </si>
   <si>
@@ -172,6 +169,30 @@
   </si>
   <si>
     <t>afslag</t>
+  </si>
+  <si>
+    <t>Andreas Holm</t>
+  </si>
+  <si>
+    <t>Sune Hellfritsch</t>
+  </si>
+  <si>
+    <t>Accept (1=ja, 0=nej, _=intet svar)</t>
+  </si>
+  <si>
+    <t>Skriftlig</t>
+  </si>
+  <si>
+    <t>Jenny-Margrethe Vej</t>
+  </si>
+  <si>
+    <t>Phillip Alexander</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>Kun retteopgaver</t>
   </si>
 </sst>
 </file>
@@ -226,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -248,8 +269,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -263,8 +288,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -275,6 +306,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -285,6 +318,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -626,260 +661,331 @@
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="10.83203125" style="2"/>
-    <col min="11" max="11" width="30.83203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="6" width="21.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="30.83203125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30">
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30">
+    </row>
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45">
+        <v>53</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45">
       <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="F14" s="2">
+        <f>SUM(F2:F13)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ansøgere/ansøgere.xlsx
+++ b/ansøgere/ansøgere.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28400" yWindow="0" windowWidth="31380" windowHeight="20140" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="1820" windowWidth="23020" windowHeight="12820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>Peter Pedersen</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Andreas Holm</t>
   </si>
   <si>
-    <t>Sune Hellfritsch</t>
-  </si>
-  <si>
     <t>Accept (1=ja, 0=nej, _=intet svar)</t>
   </si>
   <si>
@@ -193,6 +190,51 @@
   </si>
   <si>
     <t>Kun retteopgaver</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aholm99@hotmail.com </t>
+  </si>
+  <si>
+    <t>brianspieg@gmail.com</t>
+  </si>
+  <si>
+    <t>chrisnave92@gmail.com</t>
+  </si>
+  <si>
+    <t>erikthepartridge@gmail.com</t>
+  </si>
+  <si>
+    <t>jennyvej@gmail.com</t>
+  </si>
+  <si>
+    <t>lmj715@alumni.ku.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vnr613@alumni.ku.dk </t>
+  </si>
+  <si>
+    <t>martin_westh@hotmail.com</t>
+  </si>
+  <si>
+    <t>muhammad.touseef@yahoo.com</t>
+  </si>
+  <si>
+    <t>petnped@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roschnowski@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunehellfritzsch@gmail.com </t>
+  </si>
+  <si>
+    <t>Gerne 20 timer</t>
+  </si>
+  <si>
+    <t>Sune Hellfritzsch</t>
   </si>
 </sst>
 </file>
@@ -247,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -273,8 +315,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -294,8 +346,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -308,6 +364,11 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -320,6 +381,11 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -649,346 +715,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="6" width="21.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="12" width="30.83203125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="31.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="7" width="21.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="30.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="M4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="45">
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:13" ht="45">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="F14" s="2">
-        <f>SUM(F2:F13)</f>
-        <v>6</v>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="2">
+        <f>SUM(G2:G14)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M14">
+    <sortCondition descending="1" ref="G2:G14"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/ansøgere/ansøgere.xlsx
+++ b/ansøgere/ansøgere.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1820" windowWidth="23020" windowHeight="12820" tabRatio="500"/>
+    <workbookView xWindow="31820" yWindow="7080" windowWidth="23020" windowHeight="12820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>Peter Pedersen</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Ansøger</t>
   </si>
   <si>
-    <t>Kontaktdato</t>
-  </si>
-  <si>
     <t>Muhammad Touseef</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Andreas Holm</t>
   </si>
   <si>
-    <t>Accept (1=ja, 0=nej, _=intet svar)</t>
-  </si>
-  <si>
     <t>Skriftlig</t>
   </si>
   <si>
@@ -235,6 +229,24 @@
   </si>
   <si>
     <t>Sune Hellfritzsch</t>
+  </si>
+  <si>
+    <t>Jeannette Cieluch</t>
+  </si>
+  <si>
+    <t>jeannette@cieluch.de</t>
+  </si>
+  <si>
+    <t>Ingeniør, men mange datalogikurser. Spejderleder, og har undervist lidt i matematik.</t>
+  </si>
+  <si>
+    <t>Accept (1=ja, 0,5=Kun rette, 0=nej, _=intet svar)</t>
+  </si>
+  <si>
+    <t>emilsbak@gmail.com</t>
+  </si>
+  <si>
+    <t>Emil Bak</t>
   </si>
 </sst>
 </file>
@@ -289,7 +301,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -325,8 +337,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -350,8 +401,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="74">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -369,6 +423,44 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -386,6 +478,7 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -715,11 +808,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -727,135 +818,151 @@
     <col min="2" max="2" width="31.1640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="7" width="21.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="30.83203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="6" width="21.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="30.83203125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:12" ht="45">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="4">
+        <v>42245</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30">
-      <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="45">
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -863,253 +970,282 @@
       <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>36</v>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60">
       <c r="A7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="E7" s="4">
+        <v>42247</v>
+      </c>
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>47</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45">
       <c r="A11" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30">
       <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="G15" s="2">
-        <f>SUM(G2:G14)</f>
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="F16" s="5">
+        <f>SUM(F2:F15)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M14">
-    <sortCondition descending="1" ref="G2:G14"/>
+  <sortState ref="A2:L15">
+    <sortCondition descending="1" ref="F2:F15"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/ansøgere/ansøgere.xlsx
+++ b/ansøgere/ansøgere.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31820" yWindow="7080" windowWidth="23020" windowHeight="12820" tabRatio="500"/>
+    <workbookView xWindow="26980" yWindow="8800" windowWidth="23020" windowHeight="12820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>Peter Pedersen</t>
   </si>
@@ -141,9 +141,6 @@
     <t>kommentarer</t>
   </si>
   <si>
-    <t>Er mest interesseret i rettearbejdet</t>
-  </si>
-  <si>
     <t>phd-position, sprogproblem, kan ikke dansk begynder på et kursus i næste uge.</t>
   </si>
   <si>
@@ -247,6 +244,24 @@
   </si>
   <si>
     <t>Emil Bak</t>
+  </si>
+  <si>
+    <t>Rasmus Johannesson</t>
+  </si>
+  <si>
+    <t>rasmus.j@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ip: 10, oopd: 10. Kan ikke i B</t>
+  </si>
+  <si>
+    <t>Spurgt om ikke B undervisning</t>
+  </si>
+  <si>
+    <t>Er mest interesseret i rettearbejdet, Spurgt om ikke B undervisning</t>
+  </si>
+  <si>
+    <t>Nej</t>
   </si>
 </sst>
 </file>
@@ -810,7 +825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -831,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -840,7 +857,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>24</v>
@@ -863,13 +880,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E2" s="4">
         <v>42245</v>
@@ -889,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -907,19 +924,19 @@
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45">
@@ -927,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -951,18 +968,18 @@
         <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -997,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -1024,18 +1041,18 @@
         <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60">
       <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D7" s="2">
         <v>15</v>
@@ -1053,12 +1070,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -1068,12 +1085,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
@@ -1094,31 +1111,34 @@
         <v>31</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45">
@@ -1126,7 +1146,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1147,7 +1167,7 @@
         <v>31</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1155,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -1176,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30">
@@ -1184,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1208,18 +1228,21 @@
         <v>31</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1227,16 +1250,28 @@
         <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F16" s="5">
         <f>SUM(F2:F15)</f>
-        <v>8</v>
+        <v>7.5</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1245,6 +1280,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ansøgere/ansøgere.xlsx
+++ b/ansøgere/ansøgere.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26980" yWindow="8800" windowWidth="23020" windowHeight="12820" tabRatio="500"/>
+    <workbookView xWindow="6020" yWindow="0" windowWidth="16660" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -353,6 +353,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -420,7 +438,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="92">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -476,6 +494,24 @@
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -823,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1102,7 +1138,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>26</v>
@@ -1122,98 +1158,71 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30">
+        <v>80</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -1221,66 +1230,98 @@
       <c r="G13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>45</v>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>55</v>
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30">
       <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F16" s="5">
-        <f>SUM(F2:F15)</f>
-        <v>7.5</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="5">
+        <f>SUM(F2:F16)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L15">
-    <sortCondition descending="1" ref="F2:F15"/>
+  <sortState ref="A2:L16">
+    <sortCondition descending="1" ref="F2:F16"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
